--- a/Assets/Docs/Cards.xlsx
+++ b/Assets/Docs/Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projects\Unity Projects\Politicards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Documents\GitHub\Politicards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E5E31-8EB8-4B1E-9E77-15104297D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC8739-A051-4355-94BD-3C3DCC36697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Card Lists" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="109">
   <si>
     <t>Card Name</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>+ 2 Mercent Progress</t>
+  </si>
+  <si>
+    <t>Effect3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10 Head Friendliness</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <dimension ref="D10:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H30"/>
+      <selection activeCell="D47" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1195,7 @@
   <dimension ref="B2:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD413D3-51E8-4C00-AE38-249C8F58D191}">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1578,7 @@
   <dimension ref="B2:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0F111-1436-4564-92D9-D227C3EBDE09}">
-  <dimension ref="B2:R12"/>
+  <dimension ref="B2:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,17 +1723,17 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1746,8 +1752,11 @@
       <c r="R8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -1763,8 +1772,11 @@
       <c r="R9" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -1780,8 +1792,11 @@
       <c r="R10" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1797,8 +1812,11 @@
       <c r="R11" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1813,6 +1831,9 @@
       </c>
       <c r="R12" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="V12" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
